--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96405.44886505579</v>
+        <v>93966.97576530959</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>294.5649108765508</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>159.9063264431328</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>280.6069641540612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83099456685731</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312588</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5495062926542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>95.0409351401315</v>
+        <v>163.0860508096764</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.556204901370299</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>115.0138334144192</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611475849</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892411</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>75.00788511618082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983404</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890358</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.8326660635311</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>186.9166231085228</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991454</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179368</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.300932605791</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1175.300932605791</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>817.0352339990402</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669912</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>669.5350067139632</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>380.4321398396067</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>380.4321398396067</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.101759311881</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.139242371469</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1200.139242371469</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>814.3509897732251</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883009</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612894</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351815</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376003</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757138</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757138</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757138</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9536817013574</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>287.2691934954705</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>287.2691934954705</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>287.2691934954705</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969216</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927146</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.314208550276</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.314208550276</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031464</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215812</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218345</v>
+        <v>218.0173361775769</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218345</v>
+        <v>218.0173361775769</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>218.0173361775769</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>70.10424259518373</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>70.10424259518373</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181858</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181858</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181858</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V10" t="n">
-        <v>804.7114165106916</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W10" t="n">
-        <v>515.2942464737309</v>
+        <v>218.0173361775769</v>
       </c>
       <c r="X10" t="n">
-        <v>287.3046955757135</v>
+        <v>218.0173361775769</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218345</v>
+        <v>218.0173361775769</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851498</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506402</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529343</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998309</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
@@ -5513,16 +5513,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338367</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969311</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.36545919571103</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>125.7725440752893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>43.92933534740061</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>59.64262283303643</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5.604874051551633</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.779641435508475e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.3554390986458</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>211.5151132204102</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459085</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7828069546813</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>99.26785128072137</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.2652634529494</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393028</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.469330230033</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>989091.8491444924</v>
+        <v>989091.8491444923</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.876140686</v>
+        <v>317255.8761406861</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="J2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138715</v>
+        <v>51041.86039138718</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040524</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,22 +26439,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186729</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186738</v>
-      </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1170464.670539687</v>
+        <v>-1170651.063928226</v>
       </c>
       <c r="C6" t="n">
+        <v>147412.0675268747</v>
+      </c>
+      <c r="D6" t="n">
         <v>147412.0675268745</v>
       </c>
-      <c r="D6" t="n">
-        <v>147412.0675268747</v>
-      </c>
       <c r="E6" t="n">
-        <v>-98324.38280487664</v>
+        <v>-98359.12073031301</v>
       </c>
       <c r="F6" t="n">
-        <v>227088.0790024784</v>
+        <v>227053.3410770426</v>
       </c>
       <c r="G6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770429</v>
       </c>
       <c r="H6" t="n">
-        <v>227088.0790024783</v>
+        <v>227053.3410770426</v>
       </c>
       <c r="I6" t="n">
-        <v>227088.0790024785</v>
+        <v>227053.3410770427</v>
       </c>
       <c r="J6" t="n">
-        <v>9556.876605200552</v>
+        <v>9522.138679765238</v>
       </c>
       <c r="K6" t="n">
-        <v>227088.0790024781</v>
+        <v>227053.3410770428</v>
       </c>
       <c r="L6" t="n">
-        <v>227088.0790024783</v>
+        <v>227053.3410770428</v>
       </c>
       <c r="M6" t="n">
-        <v>142033.0510669664</v>
+        <v>141998.3131415308</v>
       </c>
       <c r="N6" t="n">
-        <v>227088.0790024783</v>
+        <v>227053.3410770426</v>
       </c>
       <c r="O6" t="n">
-        <v>227088.0790024784</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="P6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>125.2226278836127</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.8256795669202</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0450511748541</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03514705944061802</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>108.8770349994886</v>
+        <v>40.83191932994379</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>162.4696033576579</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>137.1238099094087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.268258214386391e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353141</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>430.4001870301139</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157699</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635139</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523453</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.410447117911</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>536.8001439125369</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609551</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502397</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937516</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774924</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790087</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394708</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>394.6661099905186</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
